--- a/file/input/人事_1.1/人事_1.1_自定义代码.xlsx
+++ b/file/input/人事_1.1/人事_1.1_自定义代码.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaufi/Documents/工作文档/CDSP产品/标准化推行物料/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zh\PycharmProjects\realOne\file\input\人事_1.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A51DB5E-A167-FC4B-BFF8-EDA8BFEA4AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2A45E0-5690-40A0-A9B3-54A04C701EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16400" activeTab="1" xr2:uid="{259F80EA-28E4-E348-8805-F5FB75425ED2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{259F80EA-28E4-E348-8805-F5FB75425ED2}"/>
   </bookViews>
   <sheets>
     <sheet name="对外提供数据" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="58">
   <si>
     <t>类型</t>
   </si>
@@ -224,6 +222,10 @@
   </si>
   <si>
     <t>撰写字数</t>
+  </si>
+  <si>
+    <t>色调拉三换弹癌隆鼻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -319,7 +321,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -338,6 +340,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -660,16 +665,16 @@
       <selection activeCell="D5" sqref="A1:J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" customWidth="1"/>
+    <col min="4" max="4" width="31.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.83203125" customWidth="1"/>
+    <col min="7" max="8" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1026,18 +1031,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9936F62-DD29-D548-82CC-2718E746F9F1}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1">
@@ -1227,8 +1232,14 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
+    <row r="9" spans="1:9">
+      <c r="F9" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/file/input/人事_1.1/人事_1.1_自定义代码.xlsx
+++ b/file/input/人事_1.1/人事_1.1_自定义代码.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zh\PycharmProjects\realOne\file\input\人事_1.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaufi/Documents/工作文档/CDSP产品/标准化推行物料/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2A45E0-5690-40A0-A9B3-54A04C701EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A51DB5E-A167-FC4B-BFF8-EDA8BFEA4AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{259F80EA-28E4-E348-8805-F5FB75425ED2}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16400" activeTab="1" xr2:uid="{259F80EA-28E4-E348-8805-F5FB75425ED2}"/>
   </bookViews>
   <sheets>
     <sheet name="对外提供数据" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="57">
   <si>
     <t>类型</t>
   </si>
@@ -222,10 +224,6 @@
   </si>
   <si>
     <t>撰写字数</t>
-  </si>
-  <si>
-    <t>色调拉三换弹癌隆鼻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -321,7 +319,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -340,9 +338,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -665,16 +660,16 @@
       <selection activeCell="D5" sqref="A1:J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" customWidth="1"/>
-    <col min="4" max="4" width="31.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.81640625" customWidth="1"/>
+    <col min="7" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1031,18 +1026,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9936F62-DD29-D548-82CC-2718E746F9F1}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1">
@@ -1232,14 +1227,8 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="9" spans="1:9">
-      <c r="F9" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>